--- a/excel/tab_bmi_boys_p_0_13.xlsx
+++ b/excel/tab_bmi_boys_p_0_13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\MGRS tables convertion\New LMS txt tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\child_growth_chart\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62445DDF-B488-4CD9-B805-8A11F7DD5345}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4114E22F-0DC2-43B0-91A9-44B055FB0F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab_bmi_boys_p_0_13" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Week</t>
   </si>
@@ -77,12 +77,15 @@
   </si>
   <si>
     <t>P999</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,9 +624,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -661,7 +664,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -767,7 +770,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -909,21 +912,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,8 +986,11 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1100,7 +1108,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1159,7 +1167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1218,7 +1226,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1277,7 +1285,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1336,7 +1344,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1395,7 +1403,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1454,7 +1462,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1572,7 +1580,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1631,7 +1639,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1690,7 +1698,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1749,7 +1757,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1811,4 +1819,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>